--- a/Service.Report/wwwroot/layout/excel/Indicators/IndicadoresListado.xlsx
+++ b/Service.Report/wwwroot/layout/excel/Indicators/IndicadoresListado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C74B92-63F3-42FD-852C-43D17337DDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286823A-2FC1-4ED2-AA80-081E2832921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diario" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Mensual" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Promotions" localSheetId="2">Mensual!$A$4:$E$5</definedName>
-    <definedName name="Promotions" localSheetId="1">Semanal!$A$4:$E$5</definedName>
-    <definedName name="Promotions">Diario!$A$4:$E$5</definedName>
+    <definedName name="Indicadores_Mensual" localSheetId="2">Mensual!$A$4</definedName>
+    <definedName name="Indicadores_TablaM">Mensual!$A$3:$B$5</definedName>
+    <definedName name="Sucursales_Mensual" localSheetId="2">Mensual!$B$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <r>
       <rPr>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>{{item.Sucursal}}</t>
+  </si>
+  <si>
+    <t>{{Dia}}</t>
   </si>
 </sst>
 </file>
@@ -161,10 +164,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,16 +665,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -687,7 +690,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -723,16 +726,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -748,7 +751,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -770,7 +773,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,20 +787,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -809,7 +812,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Service.Report/wwwroot/layout/excel/Indicators/IndicadoresListado.xlsx
+++ b/Service.Report/wwwroot/layout/excel/Indicators/IndicadoresListado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286823A-2FC1-4ED2-AA80-081E2832921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C56A068-F45E-47BF-81CB-BD5B2F82250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,6 @@
     <sheet name="Semanal" sheetId="4" r:id="rId2"/>
     <sheet name="Mensual" sheetId="5" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="Indicadores_Mensual" localSheetId="2">Mensual!$A$4</definedName>
-    <definedName name="Indicadores_TablaM">Mensual!$A$3:$B$5</definedName>
-    <definedName name="Sucursales_Mensual" localSheetId="2">Mensual!$B$3</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -68,21 +63,87 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Listado de {{Titulo}}
+      <t>Listado de {{TituloDiario}}
 DEL {{Fecha}} AL {{Fecha}}</t>
     </r>
   </si>
   <si>
-    <t>{{item.Dia}}</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Laboratorio Alfonso Ramos S.A. de C.V. MONTERREY
+{{Direccion}}
+{{Sucursal}}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Listado de {{TituloSemanal}}
+DEL {{Fecha}} AL {{Fecha}}</t>
+    </r>
   </si>
   <si>
-    <t>{{item.Fila}}</t>
-  </si>
-  <si>
-    <t>{{item.Sucursal}}</t>
-  </si>
-  <si>
-    <t>{{Dia}}</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Laboratorio Alfonso Ramos S.A. de C.V. MONTERREY
+{{Direccion}}
+{{Sucursal}}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Listado de {{TituloMensual}}
+DEL {{Fecha}} AL {{Fecha}}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -651,7 +712,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,12 +738,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -690,9 +747,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
@@ -712,7 +767,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +782,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -738,12 +793,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -751,9 +802,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
@@ -773,7 +822,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +837,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -799,12 +848,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -812,9 +857,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>

--- a/Service.Report/wwwroot/layout/excel/Indicators/IndicadoresListado.xlsx
+++ b/Service.Report/wwwroot/layout/excel/Indicators/IndicadoresListado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Proyectos\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C56A068-F45E-47BF-81CB-BD5B2F82250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18460EAA-F04A-47E0-A593-3D674E1AF677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diario" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Listado de {{TituloDiario}}
-DEL {{Fecha}} AL {{Fecha}}</t>
+      <t>Listado de {{TituloMensual}}
+DEL {{FechaMensual}}</t>
     </r>
   </si>
   <si>
@@ -103,7 +103,7 @@
         <scheme val="minor"/>
       </rPr>
       <t>Listado de {{TituloSemanal}}
-DEL {{Fecha}} AL {{Fecha}}</t>
+DEL {{Fecha}}</t>
     </r>
   </si>
   <si>
@@ -141,8 +141,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Listado de {{TituloMensual}}
-DEL {{Fecha}} AL {{Fecha}}</t>
+      <t>Listado de {{TituloDiario}}
+DEL {{Fecha}}</t>
     </r>
   </si>
 </sst>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,17 +718,127 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4DF552-E2F9-4444-9B71-23F8BC2656E7}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C022A891-EB01-4657-939E-ADDC9FEA4D83}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -737,7 +850,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -746,120 +859,11 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4DF552-E2F9-4444-9B71-23F8BC2656E7}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C022A891-EB01-4657-939E-ADDC9FEA4D83}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
     </row>
   </sheetData>
